--- a/natmiOut/OldD2/LR-pairs_lrc2p/F9-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/F9-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.602522469761019</v>
+        <v>0.6818126666666666</v>
       </c>
       <c r="H2">
-        <v>0.602522469761019</v>
+        <v>2.045438</v>
       </c>
       <c r="I2">
-        <v>0.6119689948077497</v>
+        <v>0.5993607991797695</v>
       </c>
       <c r="J2">
-        <v>0.6119689948077497</v>
+        <v>0.5993607991797694</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>1.10219188859789</v>
+        <v>1.376611137382667</v>
       </c>
       <c r="R2">
-        <v>1.10219188859789</v>
+        <v>8.259666824296</v>
       </c>
       <c r="S2">
-        <v>0.002274374560831139</v>
+        <v>0.002382670947446546</v>
       </c>
       <c r="T2">
-        <v>0.002274374560831139</v>
+        <v>0.001622504168774588</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.602522469761019</v>
+        <v>0.6818126666666666</v>
       </c>
       <c r="H3">
-        <v>0.602522469761019</v>
+        <v>2.045438</v>
       </c>
       <c r="I3">
-        <v>0.6119689948077497</v>
+        <v>0.5993607991797695</v>
       </c>
       <c r="J3">
-        <v>0.6119689948077497</v>
+        <v>0.5993607991797694</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>79.23867645093652</v>
+        <v>95.24569547101109</v>
       </c>
       <c r="R3">
-        <v>79.23867645093652</v>
+        <v>857.2112592390998</v>
       </c>
       <c r="S3">
-        <v>0.163509123790774</v>
+        <v>0.1648534907974054</v>
       </c>
       <c r="T3">
-        <v>0.163509123790774</v>
+        <v>0.1683880078001208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.602522469761019</v>
+        <v>0.6818126666666666</v>
       </c>
       <c r="H4">
-        <v>0.602522469761019</v>
+        <v>2.045438</v>
       </c>
       <c r="I4">
-        <v>0.6119689948077497</v>
+        <v>0.5993607991797695</v>
       </c>
       <c r="J4">
-        <v>0.6119689948077497</v>
+        <v>0.5993607991797694</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>111.0006412704103</v>
+        <v>127.0590997247464</v>
       </c>
       <c r="R4">
-        <v>111.0006412704103</v>
+        <v>1143.531897522718</v>
       </c>
       <c r="S4">
-        <v>0.2290499842659134</v>
+        <v>0.2199168794307902</v>
       </c>
       <c r="T4">
-        <v>0.2290499842659134</v>
+        <v>0.2246319749120712</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.602522469761019</v>
+        <v>0.6818126666666666</v>
       </c>
       <c r="H5">
-        <v>0.602522469761019</v>
+        <v>2.045438</v>
       </c>
       <c r="I5">
-        <v>0.6119689948077497</v>
+        <v>0.5993607991797695</v>
       </c>
       <c r="J5">
-        <v>0.6119689948077497</v>
+        <v>0.5993607991797694</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>84.18702394313688</v>
+        <v>97.91184390465821</v>
       </c>
       <c r="R5">
-        <v>84.18702394313688</v>
+        <v>881.206595141924</v>
       </c>
       <c r="S5">
-        <v>0.173720046018418</v>
+        <v>0.169468123239294</v>
       </c>
       <c r="T5">
-        <v>0.173720046018418</v>
+        <v>0.1731015795895976</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.602522469761019</v>
+        <v>0.6818126666666666</v>
       </c>
       <c r="H6">
-        <v>0.602522469761019</v>
+        <v>2.045438</v>
       </c>
       <c r="I6">
-        <v>0.6119689948077497</v>
+        <v>0.5993607991797695</v>
       </c>
       <c r="J6">
-        <v>0.6119689948077497</v>
+        <v>0.5993607991797694</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>2.987750831759526</v>
+        <v>4.263862327994223</v>
       </c>
       <c r="R6">
-        <v>2.987750831759526</v>
+        <v>38.37476095194801</v>
       </c>
       <c r="S6">
-        <v>0.006165228175014306</v>
+        <v>0.007379993243509229</v>
       </c>
       <c r="T6">
-        <v>0.006165228175014306</v>
+        <v>0.007538222902298585</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.602522469761019</v>
+        <v>0.6818126666666666</v>
       </c>
       <c r="H7">
-        <v>0.602522469761019</v>
+        <v>2.045438</v>
       </c>
       <c r="I7">
-        <v>0.6119689948077497</v>
+        <v>0.5993607991797695</v>
       </c>
       <c r="J7">
-        <v>0.6119689948077497</v>
+        <v>0.5993607991797694</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>18.05195629404552</v>
+        <v>20.42937417954366</v>
       </c>
       <c r="R7">
-        <v>18.05195629404552</v>
+        <v>122.576245077262</v>
       </c>
       <c r="S7">
-        <v>0.03725023799679893</v>
+        <v>0.03535964152132409</v>
       </c>
       <c r="T7">
-        <v>0.03725023799679893</v>
+        <v>0.0240785098069067</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.382041249762552</v>
+        <v>0.4557536666666667</v>
       </c>
       <c r="H8">
-        <v>0.382041249762552</v>
+        <v>1.367261</v>
       </c>
       <c r="I8">
-        <v>0.3880310051922503</v>
+        <v>0.4006392008202306</v>
       </c>
       <c r="J8">
-        <v>0.3880310051922503</v>
+        <v>0.4006392008202306</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>0.6988664949957822</v>
+        <v>0.9201876176686666</v>
       </c>
       <c r="R8">
-        <v>0.6988664949957822</v>
+        <v>5.521125706012</v>
       </c>
       <c r="S8">
-        <v>0.001442112026117003</v>
+        <v>0.001592682380143868</v>
       </c>
       <c r="T8">
-        <v>0.001442112026117003</v>
+        <v>0.00108455336817978</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.382041249762552</v>
+        <v>0.4557536666666667</v>
       </c>
       <c r="H9">
-        <v>0.382041249762552</v>
+        <v>1.367261</v>
       </c>
       <c r="I9">
-        <v>0.3880310051922503</v>
+        <v>0.4006392008202306</v>
       </c>
       <c r="J9">
-        <v>0.3880310051922503</v>
+        <v>0.4006392008202306</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>50.24284487324328</v>
+        <v>63.6664249101611</v>
       </c>
       <c r="R9">
-        <v>50.24284487324328</v>
+        <v>572.9978241914499</v>
       </c>
       <c r="S9">
-        <v>0.1036761832722749</v>
+        <v>0.1101953462686971</v>
       </c>
       <c r="T9">
-        <v>0.1036761832722749</v>
+        <v>0.1125579733694206</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.382041249762552</v>
+        <v>0.4557536666666667</v>
       </c>
       <c r="H10">
-        <v>0.382041249762552</v>
+        <v>1.367261</v>
       </c>
       <c r="I10">
-        <v>0.3880310051922503</v>
+        <v>0.4006392008202306</v>
       </c>
       <c r="J10">
-        <v>0.3880310051922503</v>
+        <v>0.4006392008202306</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>70.38214480567378</v>
+        <v>84.93190785971345</v>
       </c>
       <c r="R10">
-        <v>70.38214480567378</v>
+        <v>764.3871707374211</v>
       </c>
       <c r="S10">
-        <v>0.1452336578945355</v>
+        <v>0.1470021445223085</v>
       </c>
       <c r="T10">
-        <v>0.1452336578945355</v>
+        <v>0.1501539223629625</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.382041249762552</v>
+        <v>0.4557536666666667</v>
       </c>
       <c r="H11">
-        <v>0.382041249762552</v>
+        <v>1.367261</v>
       </c>
       <c r="I11">
-        <v>0.3880310051922503</v>
+        <v>0.4006392008202306</v>
       </c>
       <c r="J11">
-        <v>0.3880310051922503</v>
+        <v>0.4006392008202306</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>53.38044214978873</v>
+        <v>65.44859614856422</v>
       </c>
       <c r="R11">
-        <v>53.38044214978873</v>
+        <v>589.0373653370781</v>
       </c>
       <c r="S11">
-        <v>0.1101506198034546</v>
+        <v>0.1132799701815847</v>
       </c>
       <c r="T11">
-        <v>0.1101506198034546</v>
+        <v>0.1157087327072504</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.382041249762552</v>
+        <v>0.4557536666666667</v>
       </c>
       <c r="H12">
-        <v>0.382041249762552</v>
+        <v>1.367261</v>
       </c>
       <c r="I12">
-        <v>0.3880310051922503</v>
+        <v>0.4006392008202306</v>
       </c>
       <c r="J12">
-        <v>0.3880310051922503</v>
+        <v>0.4006392008202306</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>1.894442313823167</v>
+        <v>2.850153693456223</v>
       </c>
       <c r="R12">
-        <v>1.894442313823167</v>
+        <v>25.65138324110601</v>
       </c>
       <c r="S12">
-        <v>0.003909184462428404</v>
+        <v>0.004933113075103558</v>
       </c>
       <c r="T12">
-        <v>0.003909184462428404</v>
+        <v>0.005038880759827317</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.382041249762552</v>
+        <v>0.4557536666666667</v>
       </c>
       <c r="H13">
-        <v>0.382041249762552</v>
+        <v>1.367261</v>
       </c>
       <c r="I13">
-        <v>0.3880310051922503</v>
+        <v>0.4006392008202306</v>
       </c>
       <c r="J13">
-        <v>0.3880310051922503</v>
+        <v>0.4006392008202306</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>11.44619875499671</v>
+        <v>13.65589500639817</v>
       </c>
       <c r="R13">
-        <v>11.44619875499671</v>
+        <v>81.935370038389</v>
       </c>
       <c r="S13">
-        <v>0.02361924773343991</v>
+        <v>0.02363594439239278</v>
       </c>
       <c r="T13">
-        <v>0.02361924773343991</v>
+        <v>0.01609513825258994</v>
       </c>
     </row>
   </sheetData>
